--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40925938-A646-4896-B7BA-15F9FC16D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B999A612-43F6-4694-AC00-67CEEA9A1AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="534">
   <si>
     <t>type</t>
   </si>
@@ -1409,12 +1409,6 @@
     <t>round( 10 * ${u_sh_egg} div ${u_urine_vol} )</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>u_end_note</t>
-  </si>
-  <si>
     <t>u_sch_man</t>
   </si>
   <si>
@@ -1445,18 +1439,6 @@
     <t>u_barcodeid3</t>
   </si>
   <si>
-    <t>u_urine_conserve</t>
-  </si>
-  <si>
-    <t>${u_urine_conserve} = 'Oui'</t>
-  </si>
-  <si>
-    <t>${u_control} = 'Oui' and ${u_urine_conserve} = 'Oui'</t>
-  </si>
-  <si>
-    <t>L'urine de l'enfant n'a pas été consevé. Vous ne pouvez pas enregistré ses résultats.</t>
-  </si>
-  <si>
     <t>YAKPA Kossi</t>
   </si>
   <si>
@@ -1472,12 +1454,6 @@
     <t>Nombre d'œufs (S. Mansoni) par 10 ml pour le contrôle</t>
   </si>
   <si>
-    <t>${u_urine_conserve} = 'Non'</t>
-  </si>
-  <si>
-    <t>L'urine de l'enfant avait-elle était concervée</t>
-  </si>
-  <si>
     <t>u_sch_man_per_10ml</t>
   </si>
   <si>
@@ -1670,16 +1646,19 @@
     <t>ZIAGNON  Germain</t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_3_ur_v2</t>
-  </si>
-  <si>
-    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_u_2404_v2</t>
-  </si>
-  <si>
     <t>select_one recorders</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V2.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_3_ur_v2_1</t>
+  </si>
+  <si>
+    <t>tg_sc_st_u_2404_v2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${u_control} = 'Oui'</t>
   </si>
 </sst>
 </file>
@@ -2322,10 +2301,10 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:H2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2388,16 +2367,16 @@
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="8"/>
@@ -2478,13 +2457,13 @@
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="47.25">
       <c r="A6" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="28"/>
@@ -2492,7 +2471,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
@@ -2500,13 +2479,13 @@
     </row>
     <row r="7" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A7" s="53" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="53"/>
@@ -2520,13 +2499,13 @@
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1">
       <c r="A8" s="37" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="56"/>
@@ -2534,7 +2513,7 @@
       <c r="G8" s="38"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -2542,13 +2521,13 @@
     </row>
     <row r="9" spans="1:13" s="24" customFormat="1" ht="78.75">
       <c r="A9" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>481</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>489</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="56"/>
@@ -2556,7 +2535,7 @@
       <c r="G9" s="38"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2575,10 +2554,10 @@
       <c r="D10" s="38"/>
       <c r="E10" s="37"/>
       <c r="F10" s="28" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -2615,24 +2594,16 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>472</v>
-      </c>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="31"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="J12" s="28"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
     </row>
@@ -2654,9 +2625,7 @@
       <c r="G13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="28" t="s">
         <v>13</v>
@@ -2678,9 +2647,7 @@
       <c r="E14" s="41"/>
       <c r="F14" s="29"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="H14" s="29"/>
       <c r="I14" s="41"/>
       <c r="J14" s="29" t="s">
         <v>13</v>
@@ -2702,9 +2669,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="29"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="H15" s="29"/>
       <c r="I15" s="41" t="s">
         <v>449</v>
       </c>
@@ -2720,18 +2685,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="41"/>
       <c r="F16" s="29"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="H16" s="29"/>
       <c r="I16" s="41"/>
       <c r="J16" s="29" t="s">
         <v>13</v>
@@ -2744,7 +2707,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>444</v>
@@ -2753,11 +2716,9 @@
       <c r="E17" s="41"/>
       <c r="F17" s="29"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="H17" s="29"/>
       <c r="I17" s="41" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>13</v>
@@ -2770,21 +2731,19 @@
     </row>
     <row r="18" spans="1:13" s="24" customFormat="1">
       <c r="A18" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="41"/>
       <c r="F18" s="29"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="41" t="s">
-        <v>463</v>
-      </c>
+      <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="29"/>
       <c r="K18" s="41"/>
@@ -2795,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>437</v>
@@ -2809,7 +2768,7 @@
         <v>442</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28" t="s">
@@ -2823,10 +2782,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="29"/>
@@ -2837,7 +2796,7 @@
         <v>26</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="28" t="s">
@@ -2851,17 +2810,17 @@
         <v>22</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="41"/>
       <c r="F21" s="29"/>
       <c r="G21" s="42"/>
       <c r="H21" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="29" t="s">
@@ -2875,20 +2834,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="41"/>
       <c r="F22" s="29"/>
       <c r="G22" s="42"/>
       <c r="H22" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="41"/>
@@ -2902,17 +2861,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="41"/>
       <c r="F23" s="29"/>
       <c r="G23" s="42"/>
       <c r="H23" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="29" t="s">
@@ -2926,20 +2885,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="41"/>
       <c r="F24" s="29"/>
       <c r="G24" s="42"/>
       <c r="H24" s="29" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>13</v>
@@ -2950,23 +2909,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="39" customFormat="1" ht="31.5">
-      <c r="A25" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>465</v>
-      </c>
+    <row r="25" spans="1:13" s="39" customFormat="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="37"/>
       <c r="F25" s="28"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="29" t="s">
-        <v>471</v>
-      </c>
+      <c r="H25" s="29"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
@@ -2994,7 +2945,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="57" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="58"/>
@@ -3109,10 +3060,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -3124,10 +3075,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -3139,10 +3090,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -3154,10 +3105,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -3169,10 +3120,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -3184,10 +3135,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3199,10 +3150,10 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -3214,10 +3165,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -3229,10 +3180,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -3244,10 +3195,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -3259,10 +3210,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -3274,10 +3225,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -3289,10 +3240,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -3304,10 +3255,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -3319,10 +3270,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -3334,10 +3285,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -3349,10 +3300,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -3364,10 +3315,10 @@
         <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -3394,10 +3345,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -3409,10 +3360,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -3424,10 +3375,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -3439,10 +3390,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -3454,10 +3405,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
@@ -3469,10 +3420,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
@@ -3484,10 +3435,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -3499,10 +3450,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -3514,10 +3465,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="21"/>
@@ -3529,10 +3480,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="21"/>
@@ -3544,10 +3495,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="21"/>
@@ -3559,10 +3510,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="21"/>
@@ -3574,10 +3525,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="21"/>
@@ -3589,10 +3540,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="21"/>
@@ -3604,10 +3555,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="21"/>
@@ -3619,10 +3570,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="21"/>
@@ -3634,10 +3585,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="21"/>
@@ -3649,10 +3600,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="21"/>
@@ -3664,10 +3615,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="21"/>
@@ -3679,10 +3630,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="21"/>
@@ -3694,10 +3645,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="21"/>
@@ -3709,10 +3660,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="21"/>
@@ -10664,7 +10615,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10687,10 +10638,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>434</v>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B999A612-43F6-4694-AC00-67CEEA9A1AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86467DA3-BCF9-48CD-81F4-5577B9CB7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="538">
   <si>
     <t>type</t>
   </si>
@@ -1649,23 +1649,35 @@
     <t>select_one recorders</t>
   </si>
   <si>
-    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V2.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_ia_202404_3_ur_v2_1</t>
-  </si>
-  <si>
-    <t>tg_sc_st_u_2404_v2_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${u_control} = 'Oui'</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_3_ur_v3</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V3</t>
+  </si>
+  <si>
+    <t>tg_sc_st_u_2404_v3</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>Combien de résultat d'urine allez-vous enregistrer?</t>
+  </si>
+  <si>
+    <t>u_nb_children</t>
+  </si>
+  <si>
+    <t>${u_nb_children}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1759,6 +1771,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1804,7 +1831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1857,11 +1884,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2015,6 +2062,18 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2298,13 +2357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2324,7 +2383,7 @@
     <col min="13" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="18.75">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="18.75">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2364,8 +2423,11 @@
       <c r="M1" s="48" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="24" customFormat="1">
+      <c r="N1" s="62" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="24" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>529</v>
       </c>
@@ -2389,7 +2451,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
     </row>
-    <row r="3" spans="1:13" s="34" customFormat="1">
+    <row r="3" spans="1:14" s="34" customFormat="1">
       <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2473,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1">
+    <row r="4" spans="1:14" s="34" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -2433,7 +2495,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1">
+    <row r="5" spans="1:14" s="34" customFormat="1">
       <c r="A5" s="28" t="s">
         <v>14</v>
       </c>
@@ -2455,135 +2517,126 @@
       <c r="K5" s="28"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="47.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:14" customFormat="1">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="34" customFormat="1" ht="47.25">
+      <c r="A7" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B7" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>475</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A7" s="53" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" s="24" customFormat="1" ht="31.5">
+      <c r="A8" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" s="54" t="s">
+      <c r="B8" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:13" s="24" customFormat="1">
-      <c r="A8" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>478</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" ht="78.75">
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="N8" s="24" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="24" customFormat="1">
       <c r="A9" s="37" t="s">
         <v>473</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="38"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" ht="31.5">
+    <row r="10" spans="1:14" s="24" customFormat="1" ht="78.75">
       <c r="A10" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="31.5">
+      <c r="A11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C11" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" s="39" customFormat="1" ht="31.5">
-      <c r="A11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>437</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="37"/>
       <c r="F11" s="28" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -2593,396 +2646,404 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" s="40" customFormat="1" ht="31.5">
-      <c r="A13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:14" s="39" customFormat="1" ht="31.5">
+      <c r="A12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:14" s="40" customFormat="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>26</v>
-      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="J13" s="28"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" s="24" customFormat="1" ht="31.5">
+    <row r="14" spans="1:14" s="40" customFormat="1" ht="31.5">
       <c r="A14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" s="24" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>447</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>443</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="41"/>
       <c r="F15" s="29"/>
       <c r="G15" s="42"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="J15" s="29"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
-      <c r="M15" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1" ht="31.5">
+    </row>
+    <row r="16" spans="1:14" s="24" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="41"/>
       <c r="F16" s="29"/>
       <c r="G16" s="42"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="I16" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="J16" s="29"/>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="M16" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="24" customFormat="1">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="41"/>
       <c r="F17" s="29"/>
       <c r="G17" s="42"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="41" t="s">
-        <v>467</v>
-      </c>
+      <c r="I17" s="41"/>
       <c r="J17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="24" customFormat="1">
+    </row>
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A18" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D18" s="45"/>
+        <v>22</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" s="31"/>
       <c r="E18" s="41"/>
       <c r="F18" s="29"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:13" s="39" customFormat="1" ht="47.25">
-      <c r="A19" s="37" t="s">
+      <c r="M18" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="24" customFormat="1">
+      <c r="A19" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" s="39" customFormat="1" ht="31.5">
+      <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B20" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="28" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" s="40" customFormat="1" ht="47.25">
-      <c r="A20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>26</v>
-      </c>
       <c r="H20" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I20" s="29"/>
+        <v>530</v>
+      </c>
+      <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" s="40" customFormat="1">
       <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="24" customFormat="1">
+      <c r="A22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>462</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>463</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="41"/>
       <c r="F22" s="29"/>
       <c r="G22" s="42"/>
       <c r="H22" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="J22" s="29"/>
+        <v>530</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
-      <c r="M22" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="47.25">
+    </row>
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A23" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="41"/>
       <c r="F23" s="29"/>
       <c r="G23" s="42"/>
       <c r="H23" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="J23" s="29"/>
       <c r="K23" s="41"/>
       <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="47.25">
+      <c r="M23" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="24" customFormat="1">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="41"/>
       <c r="F24" s="29"/>
       <c r="G24" s="42"/>
       <c r="H24" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>470</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="I24" s="41"/>
       <c r="J24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
-      <c r="M24" s="24" t="s">
+    </row>
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="31.5">
+      <c r="A25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="J25" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="39" customFormat="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" s="24" customFormat="1">
-      <c r="A26" s="29" t="s">
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="39" customFormat="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:13" s="24" customFormat="1">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="57" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-    </row>
-    <row r="28" spans="1:13" s="24" customFormat="1">
-      <c r="A28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:13" s="24" customFormat="1">
       <c r="A29" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="45"/>
@@ -2995,19 +3056,37 @@
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+    <row r="30" spans="1:13" s="24" customFormat="1">
+      <c r="A30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="44"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="45"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="46"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10615,7 +10694,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10638,7 +10717,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>531</v>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86467DA3-BCF9-48CD-81F4-5577B9CB7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A532C-69AE-4B66-B9EE-D86DD8A16A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,7 +2363,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="11" spans="1:14" s="39" customFormat="1" ht="31.5">
       <c r="A11" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>20</v>

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_3_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8A532C-69AE-4B66-B9EE-D86DD8A16A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5AA12-53B8-4090-98D6-43B87E224164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,12 +1514,6 @@
     <t>if (${C2} = 1,'',substring-after(${C1},${u_barcodeid}))</t>
   </si>
   <si>
-    <t>not(selected(${C3}, ${u_barcodeid}))</t>
-  </si>
-  <si>
-    <t>Ce QR code a déjà été utiliser dans cette école</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -1652,15 +1646,6 @@
     <t xml:space="preserve"> ${u_control} = 'Oui'</t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_3_ur_v3</t>
-  </si>
-  <si>
-    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V3</t>
-  </si>
-  <si>
-    <t>tg_sc_st_u_2404_v3</t>
-  </si>
-  <si>
     <t>repeat_count</t>
   </si>
   <si>
@@ -1671,6 +1656,23 @@
   </si>
   <si>
     <t>${u_nb_children}</t>
+  </si>
+  <si>
+    <t>Ce QR Code n'appartient pas à ce district ou vous l'avez déjà utiliser</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${u_barcodeid})) and 
+regex(.,'^(BLI|AGO|ASS|BIN|DAN|DOU|KER|KOZ|AVE|BAS|LAC|VOG|YOT|ZIO)_\d{4}$') and 
+(substr(${u_district} , 0, 3) = substr(., 0, 3) or substr(${u_district} , 0, 3) = 'VO')</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_3_ur_v3_1</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 3. SCH/STH - Urine Filtration V3.1</t>
+  </si>
+  <si>
+    <t>tg_sc_st_u_2404_v3_1</t>
   </si>
 </sst>
 </file>
@@ -2360,10 +2362,10 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2373,7 +2375,7 @@
     <col min="3" max="3" width="47.5" style="47" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="47" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="22" style="25" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="25" customWidth="1"/>
@@ -2424,12 +2426,12 @@
         <v>448</v>
       </c>
       <c r="N1" s="62" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="24" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>12</v>
@@ -2522,10 +2524,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>13</v>
@@ -2558,7 +2560,7 @@
         <v>476</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C8" s="54" t="s">
         <v>482</v>
@@ -2573,7 +2575,7 @@
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="N8" s="24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1">
@@ -2620,7 +2622,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="1:14" s="39" customFormat="1" ht="31.5">
+    <row r="11" spans="1:14" s="39" customFormat="1" ht="126">
       <c r="A11" s="37" t="s">
         <v>19</v>
       </c>
@@ -2633,10 +2635,10 @@
       <c r="D11" s="38"/>
       <c r="E11" s="37"/>
       <c r="F11" s="28" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -2847,7 +2849,7 @@
         <v>442</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
@@ -2875,7 +2877,7 @@
         <v>26</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="28" t="s">
@@ -2899,7 +2901,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="42"/>
       <c r="H22" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="29" t="s">
@@ -2923,7 +2925,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="42"/>
       <c r="H23" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>457</v>
@@ -2950,7 +2952,7 @@
       <c r="F24" s="29"/>
       <c r="G24" s="42"/>
       <c r="H24" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I24" s="41"/>
       <c r="J24" s="29" t="s">
@@ -2974,7 +2976,7 @@
       <c r="F25" s="29"/>
       <c r="G25" s="42"/>
       <c r="H25" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>470</v>
@@ -3024,7 +3026,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="58"/>
@@ -3139,10 +3141,10 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
@@ -3154,10 +3156,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -3169,10 +3171,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -3184,10 +3186,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
@@ -3199,10 +3201,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
@@ -3214,10 +3216,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3229,10 +3231,10 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
@@ -3244,10 +3246,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
@@ -3259,10 +3261,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -3274,10 +3276,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -3289,10 +3291,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -3304,10 +3306,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
@@ -3319,10 +3321,10 @@
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -3334,10 +3336,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -3349,10 +3351,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -3364,10 +3366,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
@@ -3379,10 +3381,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
@@ -3394,10 +3396,10 @@
         <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
@@ -3424,10 +3426,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
@@ -3439,10 +3441,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
@@ -3454,10 +3456,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
@@ -3469,10 +3471,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
@@ -3484,10 +3486,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
@@ -3499,10 +3501,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
@@ -3514,10 +3516,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
@@ -3529,10 +3531,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
@@ -3544,10 +3546,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="21"/>
@@ -3559,10 +3561,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="21"/>
@@ -3574,10 +3576,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="21"/>
@@ -3589,10 +3591,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="21"/>
@@ -3604,10 +3606,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="21"/>
@@ -3619,10 +3621,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="21"/>
@@ -3634,10 +3636,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="21"/>
@@ -3649,10 +3651,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="21"/>
@@ -3664,10 +3666,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="21"/>
@@ -3679,10 +3681,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="21"/>
@@ -3694,10 +3696,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="21"/>
@@ -3709,10 +3711,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="21"/>
@@ -3739,10 +3741,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="21"/>
@@ -10717,10 +10719,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>434</v>
